--- a/Original/CN/Dialog/Drama/farris.xlsx
+++ b/Original/CN/Dialog/Drama/farris.xlsx
@@ -114,7 +114,7 @@
   </si>
   <si>
     <t xml:space="preserve">Oh...thank the merciful Ehekatl for this encounter.
-I  am Farris, the talesinger of Olvina. Something unusual has been happening in Nymelle and I have come to this cave with a band of hired swords. But alas, we were attacked by vicious monsters.</t>
+I am Farris, the talesinger of Olvina. Something unusual has been happening in Nymelle and I have come to this cave with a band of hired swords. But alas, we were attacked by vicious monsters.</t>
   </si>
   <si>
     <t xml:space="preserve">addKeyItem</t>
@@ -1372,9 +1372,9 @@
   <dimension ref="A1:M160"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K157" sqref="K157"/>
-      <selection pane="bottomLeft" activeCell="J156" sqref="J156"/>
+      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>

--- a/Original/CN/Dialog/Drama/farris.xlsx
+++ b/Original/CN/Dialog/Drama/farris.xlsx
@@ -836,7 +836,7 @@
     <t xml:space="preserve">啊…！（嘀嘀咕咕）</t>
   </si>
   <si>
-    <t xml:space="preserve">你好啊，法莉斯。</t>
+    <t xml:space="preserve">你好啊，法莉斯小姐。</t>
   </si>
   <si>
     <t xml:space="preserve">啊，罗伊特尔大人。库罗茨亚正和我说到您的事情呢。</t>
@@ -852,7 +852,7 @@
   </si>
   <si>
     <t xml:space="preserve">不，我没有那样的意思！
-…只是，我想起了那个孩子眼睛的事情。法莉斯也从凯特尔那里听说了吧？我被那个孩子讨厌了……没准哪天就突然没命了…</t>
+…只是，我想起了那个孩子眼睛的事情。法莉斯小姐也从凯特尔那里听说了吧？我被那个孩子讨厌了……没准哪天就突然没命了…</t>
   </si>
   <si>
     <t xml:space="preserve">…罗伊特尔大人啊，我对你真是太失望了。</t>
@@ -878,7 +878,7 @@
 您知道吗，罗伊特尔大人。如果您想打开她的心扉，就必须用尽办法去直面她，引她说出真实的心声，然后全心全意地接纳她袒露出的灵魂呼喊！</t>
   </si>
   <si>
-    <t xml:space="preserve">唔…嗯，感觉有点夸张，但我明白你的意思，法莉斯。
+    <t xml:space="preserve">唔…嗯，感觉有点夸张，但我明白你的意思，法莉斯小姐。
 要引出库罗茨亚的心声吗…哎呀，这可真是个挑战呢。</t>
   </si>
   <si>
@@ -890,13 +890,13 @@
   </si>
   <si>
     <t xml:space="preserve">法莉斯小姐…根本就没有计划。
-…二千万奥伦这种荒唐的金额，我怎么还得起！ 我…我…！</t>
+…两千万奥伦这种荒唐的金额，我怎么还得起！ 我…我…！</t>
   </si>
   <si>
     <t xml:space="preserve">啊！ 罗伊特尔大人！？</t>
   </si>
   <si>
-    <t xml:space="preserve">大家，罗伊特尔大人逃走了…！ 快，快点，抓住罗伊特尔大人！ 喂，凯特尔大人，您也快去追他！</t>
+    <t xml:space="preserve">大家，罗伊特尔大人逃走了…！ 快，快点，抓住罗伊特尔大人！ 喂，凯特尔先生，您也快去追他！</t>
   </si>
   <si>
     <t xml:space="preserve">嗯…好吧…</t>
@@ -914,7 +914,7 @@
     <t xml:space="preserve">…呜噶啊！</t>
   </si>
   <si>
-    <t xml:space="preserve">歌尔贡，真是个好孩子！就这样拖住罗伊特尔！</t>
+    <t xml:space="preserve">歌罗贡，真是个好孩子！就这样拖住罗伊特尔！</t>
   </si>
   <si>
     <t xml:space="preserve">哈啊…哈啊…</t>
@@ -959,17 +959,17 @@
 他总是说些让人不安的话，真是让人头疼啊。</t>
   </si>
   <si>
-    <t xml:space="preserve">但是罗伊特尔大人，我觉得他并不是什么坏人。迪米塔斯应该只是有心病吧。</t>
+    <t xml:space="preserve">但是罗伊特尔大人，我觉得他并不是什么坏人。迪米塔斯先生应该只是有心病吧。</t>
   </si>
   <si>
     <t xml:space="preserve">嗯，心病？</t>
   </si>
   <si>
-    <t xml:space="preserve">虽然不能确信。但是，迪米塔斯的内心应该有些扭曲…
+    <t xml:space="preserve">虽然不能确信。但是，迪米塔斯先生的内心应该有些扭曲…
 那种诡异说话方式的背后，不知隐藏了多少苦恼和悲伤…真的让人很感兴趣。</t>
   </si>
   <si>
-    <t xml:space="preserve">…说起来，法莉斯看着迪米塔斯时，眼神总是闪闪发光。
+    <t xml:space="preserve">…说起来，法莉斯小姐看着迪米塔斯时，眼神总是闪闪发光。
 他确实令人不快，但给人的印象并非纯粹的恶徒。</t>
   </si>
   <si>

--- a/Original/CN/Dialog/Drama/farris.xlsx
+++ b/Original/CN/Dialog/Drama/farris.xlsx
@@ -836,7 +836,7 @@
     <t xml:space="preserve">啊…！（嘀嘀咕咕）</t>
   </si>
   <si>
-    <t xml:space="preserve">你好啊，法莉斯小姐。</t>
+    <t xml:space="preserve">你好啊，法莉斯。</t>
   </si>
   <si>
     <t xml:space="preserve">啊，罗伊特尔大人。库罗茨亚正和我说到您的事情呢。</t>
@@ -852,7 +852,7 @@
   </si>
   <si>
     <t xml:space="preserve">不，我没有那样的意思！
-…只是，我想起了那个孩子眼睛的事情。法莉斯小姐也从凯特尔那里听说了吧？我被那个孩子讨厌了……没准哪天就突然没命了…</t>
+…只是，我想起了那个孩子眼睛的事情。法莉斯也从凯特尔那里听说了吧？我被那个孩子讨厌了……没准哪天就突然没命了…</t>
   </si>
   <si>
     <t xml:space="preserve">…罗伊特尔大人啊，我对你真是太失望了。</t>
@@ -878,7 +878,7 @@
 您知道吗，罗伊特尔大人。如果您想打开她的心扉，就必须用尽办法去直面她，引她说出真实的心声，然后全心全意地接纳她袒露出的灵魂呼喊！</t>
   </si>
   <si>
-    <t xml:space="preserve">唔…嗯，感觉有点夸张，但我明白你的意思，法莉斯小姐。
+    <t xml:space="preserve">唔…嗯，感觉有点夸张，但我明白你的意思，法莉斯。
 要引出库罗茨亚的心声吗…哎呀，这可真是个挑战呢。</t>
   </si>
   <si>
@@ -890,13 +890,13 @@
   </si>
   <si>
     <t xml:space="preserve">法莉斯小姐…根本就没有计划。
-…两千万奥伦这种荒唐的金额，我怎么还得起！ 我…我…！</t>
+…二千万奥伦这种荒唐的金额，我怎么还得起！ 我…我…！</t>
   </si>
   <si>
     <t xml:space="preserve">啊！ 罗伊特尔大人！？</t>
   </si>
   <si>
-    <t xml:space="preserve">大家，罗伊特尔大人逃走了…！ 快，快点，抓住罗伊特尔大人！ 喂，凯特尔先生，您也快去追他！</t>
+    <t xml:space="preserve">大家，罗伊特尔大人逃走了…！ 快，快点，抓住罗伊特尔大人！ 喂，凯特尔大人，您也快去追他！</t>
   </si>
   <si>
     <t xml:space="preserve">嗯…好吧…</t>
@@ -914,7 +914,7 @@
     <t xml:space="preserve">…呜噶啊！</t>
   </si>
   <si>
-    <t xml:space="preserve">歌罗贡，真是个好孩子！就这样拖住罗伊特尔！</t>
+    <t xml:space="preserve">歌尔贡，真是个好孩子！就这样拖住罗伊特尔！</t>
   </si>
   <si>
     <t xml:space="preserve">哈啊…哈啊…</t>
@@ -959,17 +959,17 @@
 他总是说些让人不安的话，真是让人头疼啊。</t>
   </si>
   <si>
-    <t xml:space="preserve">但是罗伊特尔大人，我觉得他并不是什么坏人。迪米塔斯先生应该只是有心病吧。</t>
+    <t xml:space="preserve">但是罗伊特尔大人，我觉得他并不是什么坏人。迪米塔斯应该只是有心病吧。</t>
   </si>
   <si>
     <t xml:space="preserve">嗯，心病？</t>
   </si>
   <si>
-    <t xml:space="preserve">虽然不能确信。但是，迪米塔斯先生的内心应该有些扭曲…
+    <t xml:space="preserve">虽然不能确信。但是，迪米塔斯的内心应该有些扭曲…
 那种诡异说话方式的背后，不知隐藏了多少苦恼和悲伤…真的让人很感兴趣。</t>
   </si>
   <si>
-    <t xml:space="preserve">…说起来，法莉斯小姐看着迪米塔斯时，眼神总是闪闪发光。
+    <t xml:space="preserve">…说起来，法莉斯看着迪米塔斯时，眼神总是闪闪发光。
 他确实令人不快，但给人的印象并非纯粹的恶徒。</t>
   </si>
   <si>
